--- a/APM files/135799008/Book1.xlsx
+++ b/APM files/135799008/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135799008/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33B65407-98E4-AC47-BE2B-B82FDA23E435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52AC3E6-E778-6B40-98F5-237F6F0A9E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18020" yWindow="5180" windowWidth="28040" windowHeight="17440" xr2:uid="{7C05FA43-20BC-B34B-8B2D-569044257BCA}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
